--- a/Networks/Parte2/Excel/Parte2-Network3.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network3.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4359772117832736</v>
+        <v>-0.5874250293444145</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.137563969550268</v>
+        <v>-1.166021715115316</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7832768245873857</v>
+        <v>-0.1806958593573982</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6819409714325343</v>
+        <v>1.125158672491851</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.14085500467721</v>
+        <v>0.9477571601906963</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4024864950471055</v>
+        <v>0.9888840968501631</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.03100905454229</v>
+        <v>-1.711929502250102</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1712872003582693</v>
+        <v>0.2787071566732836</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1010788514283058</v>
+        <v>0.2854521736965125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6739666428796446</v>
+        <v>-0.1904456298739174</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1007624243598236</v>
+        <v>1.379515385541518</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5050572268406581</v>
+        <v>-0.413753189874506</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network3.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network3.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5874250293444145</v>
+        <v>-0.1748467492742235</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.166021715115316</v>
+        <v>0.1120573483709346</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1806958593573982</v>
+        <v>-0.153701250804759</v>
       </c>
       <c r="C3" t="n">
-        <v>1.125158672491851</v>
+        <v>-1.987109540069739</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9477571601906963</v>
+        <v>-1.420539244477489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9888840968501631</v>
+        <v>-0.07219190575164179</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.711929502250102</v>
+        <v>-0.1517445981469674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2787071566732836</v>
+        <v>-0.1559722898806173</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2854521736965125</v>
+        <v>-1.395836035602749</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1904456298739174</v>
+        <v>0.2813611808563983</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.379515385541518</v>
+        <v>-1.939354137125467</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.413753189874506</v>
+        <v>0.2251385441134592</v>
       </c>
     </row>
   </sheetData>
